--- a/continew-webapi/src/main/resources/static/stock_in.xlsx
+++ b/continew-webapi/src/main/resources/static/stock_in.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\java\continew-admin\continew-webapi\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934C626A-B1BB-4F16-B089-C64D7F76FC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CC1CE3-8746-41D2-82E8-9A7577491E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6190" yWindow="2120" windowWidth="26110" windowHeight="18320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10480" yWindow="5900" windowWidth="30500" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>{name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,14 @@
   </si>
   <si>
     <t>{inTime}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{goodsList.goodsUnit}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,16 +172,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,65 +469,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD1048576"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" style="4" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -532,14 +548,17 @@
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -558,50 +577,19 @@
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
